--- a/docs/del-Assessment.xlsx
+++ b/docs/del-Assessment.xlsx
@@ -150,7 +150,7 @@
     <t>del-Assessment</t>
   </si>
   <si>
-    <t>A definition of an assessment (standard form response).</t>
+    <t>A response to a DEL standard form for a patient. Not currently used.</t>
   </si>
   <si>
     <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
